--- a/biology/Écologie/Arrhenatheretea_elatioris/Arrhenatheretea_elatioris.xlsx
+++ b/biology/Écologie/Arrhenatheretea_elatioris/Arrhenatheretea_elatioris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arrhenatheretea elatioris (aussi connu sous les noms Arrhenatheretalia elatioris, Arrhenatheretum elatioris ou Arrhenatherion elatioris) est un syntaxon, en phytosociologie, pour une catégorie de prairies de fauche caractérisée par la présence de la graminée Arrhenatherum elatius (ou avoine élevée).
 On la trouve dans la Classification phytosociologique selon Catminat, au niveau de la catégorie 12 (Prairies eurosibériennes des sols moyennement riches à riches en azote, subissant des pratiques agricoles variées (fertilisation, amendement, fauche, pâturage, jachère, semis…)) et dans la sous-catégorie 12/1 (Végétation herbacée vivace des prairies eurosibériennes : Agrostio stoloniferae - Arrhenatheretea elatioris subsp. elatioris).
